--- a/freq_shift_results_octave3/Summary.xlsx
+++ b/freq_shift_results_octave3/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Craig\Documents\GitHub\pitch-sensing\freq_shift_results_octave3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557995BE-73F0-4E99-9AA7-8E7461DA296B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E3053F-AD51-4B6D-A69A-EE17957E19FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{ECBBEDAC-FEB3-4580-8E7C-C172B6CE95E6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
   <si>
     <t>Latency</t>
   </si>
@@ -161,6 +161,7 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -182,7 +183,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,7 +501,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,31 +509,31 @@
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="G1" s="5" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="G1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
+      <c r="A2" s="9"/>
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -546,7 +546,7 @@
       <c r="E2" s="1">
         <v>10</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="7"/>
       <c r="H2" s="1">
         <v>1</v>
       </c>
@@ -564,36 +564,36 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="2">
         <f>1000*0.0123939393939394</f>
         <v>12.3939393939394</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="2">
         <f>1000*0.0131515151515152</f>
         <v>13.1515151515152</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="2">
         <f>1000*0.0144318181818181</f>
         <v>14.4318181818181</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="2">
         <f>1000*0.0165909090909091</f>
         <v>16.590909090909101</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="9">
-        <v>2.2533668881635287</v>
-      </c>
-      <c r="I3" s="9">
-        <v>1.8391725772098457</v>
-      </c>
-      <c r="J3" s="9">
-        <v>1.8373411147005303</v>
-      </c>
-      <c r="K3" s="9">
-        <v>0.66261786558625535</v>
+      <c r="H3" s="2">
+        <v>15.058602279764404</v>
+      </c>
+      <c r="I3" s="2">
+        <v>13.811112644439795</v>
+      </c>
+      <c r="J3" s="2">
+        <v>12.422928184029528</v>
+      </c>
+      <c r="K3" s="2">
+        <v>10.004772563702376</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -661,18 +661,18 @@
       <c r="K7" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="1">
         <v>1</v>
       </c>
@@ -794,7 +794,7 @@
   <dimension ref="A1:G133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,8 +817,8 @@
         <v>1.2393939393939353E-2</v>
       </c>
       <c r="G1">
-        <f>AVERAGE(D:D)</f>
-        <v>2.2533668881635287</v>
+        <f>AVERAGE(E:E)</f>
+        <v>15.058602279764404</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -834,6 +834,10 @@
       <c r="D2">
         <v>41.7436816344824</v>
       </c>
+      <c r="E2">
+        <f>ABS(D2)</f>
+        <v>41.7436816344824</v>
+      </c>
       <c r="F2">
         <f>COUNTIF(C2:C133," None")/132</f>
         <v>0</v>
@@ -852,6 +856,10 @@
       <c r="D3">
         <v>-79.325200189935799</v>
       </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="0">ABS(D3)</f>
+        <v>79.325200189935799</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -866,6 +874,10 @@
       <c r="D4">
         <v>-8.1431149756337504</v>
       </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>8.1431149756337504</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -880,6 +892,10 @@
       <c r="D5">
         <v>5.1686465561248198</v>
       </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>5.1686465561248198</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -894,6 +910,10 @@
       <c r="D6">
         <v>8.7339867613598496</v>
       </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>8.7339867613598496</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -908,6 +928,10 @@
       <c r="D7">
         <v>1.5935284649828001</v>
       </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1.5935284649828001</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -922,6 +946,10 @@
       <c r="D8">
         <v>-4.6496735829143496</v>
       </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>4.6496735829143496</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -936,6 +964,10 @@
       <c r="D9">
         <v>14.6468634010167</v>
       </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>14.6468634010167</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -950,6 +982,10 @@
       <c r="D10">
         <v>13.1955631847344</v>
       </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>13.1955631847344</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -964,6 +1000,10 @@
       <c r="D11">
         <v>-5.7272326103928597</v>
       </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>5.7272326103928597</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -978,6 +1018,10 @@
       <c r="D12">
         <v>6.7385979148764497</v>
       </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>6.7385979148764497</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -992,6 +1036,10 @@
       <c r="D13">
         <v>-8.0456282390811893</v>
       </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>8.0456282390811893</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1006,6 +1054,10 @@
       <c r="D14">
         <v>-32.697117654022101</v>
       </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>32.697117654022101</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1020,6 +1072,10 @@
       <c r="D15">
         <v>-37.445393160689498</v>
       </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>37.445393160689498</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1034,8 +1090,12 @@
       <c r="D16">
         <v>2.4458940033019099</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>2.4458940033019099</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>146.83000000000001</v>
       </c>
@@ -1048,8 +1108,12 @@
       <c r="D17">
         <v>0.76470436619371696</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0.76470436619371696</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>146.83000000000001</v>
       </c>
@@ -1062,8 +1126,12 @@
       <c r="D18">
         <v>-13.1051728465855</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>13.1051728465855</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>146.83000000000001</v>
       </c>
@@ -1076,8 +1144,12 @@
       <c r="D19">
         <v>-4.7698620388317297</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>4.7698620388317297</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>146.83000000000001</v>
       </c>
@@ -1090,8 +1162,12 @@
       <c r="D20">
         <v>2.4727428177455</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>2.4727428177455</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>146.83000000000001</v>
       </c>
@@ -1104,8 +1180,12 @@
       <c r="D21">
         <v>-0.67365300485813595</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0.67365300485813595</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>146.83000000000001</v>
       </c>
@@ -1118,8 +1198,12 @@
       <c r="D22">
         <v>-10.533507908396199</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>10.533507908396199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>146.83000000000001</v>
       </c>
@@ -1132,8 +1216,12 @@
       <c r="D23">
         <v>4.4067898313629303</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>4.4067898313629303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>155.56</v>
       </c>
@@ -1146,8 +1234,12 @@
       <c r="D24">
         <v>101.382547172542</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>101.382547172542</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>155.56</v>
       </c>
@@ -1160,8 +1252,12 @@
       <c r="D25">
         <v>6.1740044192113297</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>6.1740044192113297</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>155.56</v>
       </c>
@@ -1174,8 +1270,12 @@
       <c r="D26">
         <v>12.0465470918608</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>12.0465470918608</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>155.56</v>
       </c>
@@ -1188,8 +1288,12 @@
       <c r="D27">
         <v>-7.5643028031089896</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>7.5643028031089896</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>155.56</v>
       </c>
@@ -1202,8 +1306,12 @@
       <c r="D28">
         <v>10.615678500086</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>10.615678500086</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>155.56</v>
       </c>
@@ -1216,8 +1324,12 @@
       <c r="D29">
         <v>7.5733095925844003</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>7.5733095925844003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>155.56</v>
       </c>
@@ -1230,8 +1342,12 @@
       <c r="D30">
         <v>-2.7527195748381099</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>2.7527195748381099</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>155.56</v>
       </c>
@@ -1244,8 +1360,12 @@
       <c r="D31">
         <v>15.527145076480799</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>15.527145076480799</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>155.56</v>
       </c>
@@ -1258,8 +1378,12 @@
       <c r="D32">
         <v>9.4065507176570602</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>9.4065507176570602</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>155.56</v>
       </c>
@@ -1272,8 +1396,12 @@
       <c r="D33">
         <v>-7.3372017918985701</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>7.3372017918985701</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>155.56</v>
       </c>
@@ -1286,8 +1414,12 @@
       <c r="D34">
         <v>5.9182617880197297</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>5.9182617880197297</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>164.81</v>
       </c>
@@ -1300,8 +1432,12 @@
       <c r="D35">
         <v>-7.0365943093916696</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>7.0365943093916696</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>164.81</v>
       </c>
@@ -1314,8 +1450,12 @@
       <c r="D36">
         <v>78.641495523930502</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>78.641495523930502</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>164.81</v>
       </c>
@@ -1328,8 +1468,12 @@
       <c r="D37">
         <v>-44.694295488058899</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>44.694295488058899</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>164.81</v>
       </c>
@@ -1342,8 +1486,12 @@
       <c r="D38">
         <v>-5.8540132788099104</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>5.8540132788099104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>164.81</v>
       </c>
@@ -1356,8 +1504,12 @@
       <c r="D39">
         <v>-0.63438682895158405</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>0.63438682895158405</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>164.81</v>
       </c>
@@ -1370,8 +1522,12 @@
       <c r="D40">
         <v>-14.3866108038519</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>14.3866108038519</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>164.81</v>
       </c>
@@ -1384,8 +1540,12 @@
       <c r="D41">
         <v>-4.2845608769959203</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>4.2845608769959203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>164.81</v>
       </c>
@@ -1398,8 +1558,12 @@
       <c r="D42">
         <v>10.4845785388049</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>10.4845785388049</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>164.81</v>
       </c>
@@ -1412,8 +1576,12 @@
       <c r="D43">
         <v>5.0025816369864504</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>5.0025816369864504</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>164.81</v>
       </c>
@@ -1426,8 +1594,12 @@
       <c r="D44">
         <v>-12.0903655888989</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>12.0903655888989</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>164.81</v>
       </c>
@@ -1440,8 +1612,12 @@
       <c r="D45">
         <v>5.9406362123191396</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>5.9406362123191396</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>174.61</v>
       </c>
@@ -1454,8 +1630,12 @@
       <c r="D46">
         <v>11.980848969113101</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>11.980848969113101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>174.61</v>
       </c>
@@ -1468,8 +1648,12 @@
       <c r="D47">
         <v>-3.8347724961559901</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>3.8347724961559901</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>174.61</v>
       </c>
@@ -1482,8 +1666,12 @@
       <c r="D48">
         <v>67.707697593961001</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>67.707697593961001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>174.61</v>
       </c>
@@ -1496,8 +1684,12 @@
       <c r="D49">
         <v>15.4049098040069</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>15.4049098040069</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>174.61</v>
       </c>
@@ -1510,8 +1702,12 @@
       <c r="D50">
         <v>71.0592782731798</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>71.0592782731798</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>174.61</v>
       </c>
@@ -1524,8 +1720,12 @@
       <c r="D51">
         <v>24.883775173096701</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>24.883775173096701</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>174.61</v>
       </c>
@@ -1538,8 +1738,12 @@
       <c r="D52">
         <v>-12.750457917544001</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>12.750457917544001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>174.61</v>
       </c>
@@ -1552,8 +1756,12 @@
       <c r="D53">
         <v>13.0541538408579</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>13.0541538408579</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>174.61</v>
       </c>
@@ -1566,8 +1774,12 @@
       <c r="D54">
         <v>11.7233952511771</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>11.7233952511771</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>174.61</v>
       </c>
@@ -1580,8 +1792,12 @@
       <c r="D55">
         <v>-6.1677023037508203</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>6.1677023037508203</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>174.61</v>
       </c>
@@ -1594,8 +1810,12 @@
       <c r="D56">
         <v>8.7519182338369799</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>8.7519182338369799</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>185</v>
       </c>
@@ -1608,8 +1828,12 @@
       <c r="D57">
         <v>-9.1336075960879892</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>9.1336075960879892</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>185</v>
       </c>
@@ -1622,8 +1846,12 @@
       <c r="D58">
         <v>0.892113305375832</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>0.892113305375832</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>185</v>
       </c>
@@ -1636,8 +1864,12 @@
       <c r="D59">
         <v>-10.7130760306614</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>10.7130760306614</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>185</v>
       </c>
@@ -1650,8 +1882,12 @@
       <c r="D60">
         <v>-7.4153589904413897</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>7.4153589904413897</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>185</v>
       </c>
@@ -1664,8 +1900,12 @@
       <c r="D61">
         <v>8.3200493081293398</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>8.3200493081293398</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>185</v>
       </c>
@@ -1678,8 +1918,12 @@
       <c r="D62">
         <v>-35.985754971236297</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>35.985754971236297</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>185</v>
       </c>
@@ -1692,8 +1936,12 @@
       <c r="D63">
         <v>-3.5665871758329399</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>3.5665871758329399</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>185</v>
       </c>
@@ -1706,8 +1954,12 @@
       <c r="D64">
         <v>-14.211656553866501</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>14.211656553866501</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>185</v>
       </c>
@@ -1720,8 +1972,12 @@
       <c r="D65">
         <v>-9.3711222053178709</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>9.3711222053178709</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>185</v>
       </c>
@@ -1734,8 +1990,12 @@
       <c r="D66">
         <v>-16.378592755589899</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>16.378592755589899</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>185</v>
       </c>
@@ -1748,8 +2008,12 @@
       <c r="D67">
         <v>20.8478153087454</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <f t="shared" ref="E67:E130" si="1">ABS(D67)</f>
+        <v>20.8478153087454</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>196</v>
       </c>
@@ -1762,8 +2026,12 @@
       <c r="D68">
         <v>-6.43658931960519</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68">
+        <f t="shared" si="1"/>
+        <v>6.43658931960519</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>196</v>
       </c>
@@ -1776,8 +2044,12 @@
       <c r="D69">
         <v>-1.59168646683629</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69">
+        <f t="shared" si="1"/>
+        <v>1.59168646683629</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>196</v>
       </c>
@@ -1790,8 +2062,12 @@
       <c r="D70">
         <v>-11.144540616659301</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <f t="shared" si="1"/>
+        <v>11.144540616659301</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>196</v>
       </c>
@@ -1804,8 +2080,12 @@
       <c r="D71">
         <v>1.0600126755547401</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>1.0600126755547401</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>196</v>
       </c>
@@ -1818,8 +2098,12 @@
       <c r="D72">
         <v>6.2148497811001704</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72">
+        <f t="shared" si="1"/>
+        <v>6.2148497811001704</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>196</v>
       </c>
@@ -1832,8 +2116,12 @@
       <c r="D73">
         <v>42.313813974044699</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73">
+        <f t="shared" si="1"/>
+        <v>42.313813974044699</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>196</v>
       </c>
@@ -1846,8 +2134,12 @@
       <c r="D74">
         <v>-2.7890573197086801</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74">
+        <f t="shared" si="1"/>
+        <v>2.7890573197086801</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>196</v>
       </c>
@@ -1860,8 +2152,12 @@
       <c r="D75">
         <v>-24.337001244894399</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75">
+        <f t="shared" si="1"/>
+        <v>24.337001244894399</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>196</v>
       </c>
@@ -1874,8 +2170,12 @@
       <c r="D76">
         <v>-12.357016826056</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76">
+        <f t="shared" si="1"/>
+        <v>12.357016826056</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>196</v>
       </c>
@@ -1888,8 +2188,12 @@
       <c r="D77">
         <v>-23.485339352302901</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77">
+        <f t="shared" si="1"/>
+        <v>23.485339352302901</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>196</v>
       </c>
@@ -1902,8 +2206,12 @@
       <c r="D78">
         <v>14.296707461784001</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78">
+        <f t="shared" si="1"/>
+        <v>14.296707461784001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>207.65</v>
       </c>
@@ -1916,8 +2224,12 @@
       <c r="D79">
         <v>15.6076131897028</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79">
+        <f t="shared" si="1"/>
+        <v>15.6076131897028</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>207.65</v>
       </c>
@@ -1930,8 +2242,12 @@
       <c r="D80">
         <v>-7.2313966706025399</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80">
+        <f t="shared" si="1"/>
+        <v>7.2313966706025399</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>207.65</v>
       </c>
@@ -1944,8 +2260,12 @@
       <c r="D81">
         <v>6.9853661155742</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81">
+        <f t="shared" si="1"/>
+        <v>6.9853661155742</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>207.65</v>
       </c>
@@ -1958,8 +2278,12 @@
       <c r="D82">
         <v>2.0346154365804998</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82">
+        <f t="shared" si="1"/>
+        <v>2.0346154365804998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>207.65</v>
       </c>
@@ -1972,8 +2296,12 @@
       <c r="D83">
         <v>24.2211796939132</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83">
+        <f t="shared" si="1"/>
+        <v>24.2211796939132</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>207.65</v>
       </c>
@@ -1986,8 +2314,12 @@
       <c r="D84">
         <v>0.66044870871600803</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84">
+        <f t="shared" si="1"/>
+        <v>0.66044870871600803</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>207.65</v>
       </c>
@@ -2000,8 +2332,12 @@
       <c r="D85">
         <v>0.75680556483403605</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85">
+        <f t="shared" si="1"/>
+        <v>0.75680556483403605</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>207.65</v>
       </c>
@@ -2014,8 +2350,12 @@
       <c r="D86">
         <v>43.702613019165398</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <f t="shared" si="1"/>
+        <v>43.702613019165398</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>207.65</v>
       </c>
@@ -2028,8 +2368,12 @@
       <c r="D87">
         <v>19.8651291822468</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87">
+        <f t="shared" si="1"/>
+        <v>19.8651291822468</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>207.65</v>
       </c>
@@ -2042,8 +2386,12 @@
       <c r="D88">
         <v>-6.7151208646011797</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88">
+        <f t="shared" si="1"/>
+        <v>6.7151208646011797</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>207.65</v>
       </c>
@@ -2056,8 +2404,12 @@
       <c r="D89">
         <v>1.2811265204651101</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89">
+        <f t="shared" si="1"/>
+        <v>1.2811265204651101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>220</v>
       </c>
@@ -2070,8 +2422,12 @@
       <c r="D90">
         <v>1.3361069459199999</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90">
+        <f t="shared" si="1"/>
+        <v>1.3361069459199999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>220</v>
       </c>
@@ -2084,8 +2440,12 @@
       <c r="D91">
         <v>-6.9493726073859898</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91">
+        <f t="shared" si="1"/>
+        <v>6.9493726073859898</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>220</v>
       </c>
@@ -2098,8 +2458,12 @@
       <c r="D92">
         <v>-16.8174277913309</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92">
+        <f t="shared" si="1"/>
+        <v>16.8174277913309</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>220</v>
       </c>
@@ -2112,8 +2476,12 @@
       <c r="D93">
         <v>-4.2277640981914901</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93">
+        <f t="shared" si="1"/>
+        <v>4.2277640981914901</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>220</v>
       </c>
@@ -2126,8 +2494,12 @@
       <c r="D94">
         <v>3.1734587394957199</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94">
+        <f t="shared" si="1"/>
+        <v>3.1734587394957199</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>220</v>
       </c>
@@ -2140,8 +2512,12 @@
       <c r="D95">
         <v>19.548254416228598</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95">
+        <f t="shared" si="1"/>
+        <v>19.548254416228598</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>220</v>
       </c>
@@ -2154,8 +2530,12 @@
       <c r="D96">
         <v>45.113703995010098</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96">
+        <f t="shared" si="1"/>
+        <v>45.113703995010098</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>220</v>
       </c>
@@ -2168,8 +2548,12 @@
       <c r="D97">
         <v>-37.125343528876002</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97">
+        <f t="shared" si="1"/>
+        <v>37.125343528876002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>220</v>
       </c>
@@ -2182,8 +2566,12 @@
       <c r="D98">
         <v>-8.6731547262367297</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98">
+        <f t="shared" si="1"/>
+        <v>8.6731547262367297</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>220</v>
       </c>
@@ -2196,8 +2584,12 @@
       <c r="D99">
         <v>-57.230899550126097</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99">
+        <f t="shared" si="1"/>
+        <v>57.230899550126097</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>220</v>
       </c>
@@ -2210,8 +2602,12 @@
       <c r="D100">
         <v>9.4904242282295996</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100">
+        <f t="shared" si="1"/>
+        <v>9.4904242282295996</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>233.08</v>
       </c>
@@ -2224,8 +2620,12 @@
       <c r="D101">
         <v>3.1661511227713501</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101">
+        <f t="shared" si="1"/>
+        <v>3.1661511227713501</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>233.08</v>
       </c>
@@ -2238,8 +2638,12 @@
       <c r="D102">
         <v>-10.4803135004585</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102">
+        <f t="shared" si="1"/>
+        <v>10.4803135004585</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>233.08</v>
       </c>
@@ -2252,8 +2656,12 @@
       <c r="D103">
         <v>-3.6036832054363801</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103">
+        <f t="shared" si="1"/>
+        <v>3.6036832054363801</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>233.08</v>
       </c>
@@ -2266,8 +2674,12 @@
       <c r="D104">
         <v>-7.9928174688606397</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104">
+        <f t="shared" si="1"/>
+        <v>7.9928174688606397</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>233.08</v>
       </c>
@@ -2280,8 +2692,12 @@
       <c r="D105">
         <v>6.6338152572150397</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105">
+        <f t="shared" si="1"/>
+        <v>6.6338152572150397</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>233.08</v>
       </c>
@@ -2294,8 +2710,12 @@
       <c r="D106">
         <v>8.4136888364389595</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106">
+        <f t="shared" si="1"/>
+        <v>8.4136888364389595</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>233.08</v>
       </c>
@@ -2308,8 +2728,12 @@
       <c r="D107">
         <v>8.3026986456508602</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107">
+        <f t="shared" si="1"/>
+        <v>8.3026986456508602</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>233.08</v>
       </c>
@@ -2322,8 +2746,12 @@
       <c r="D108">
         <v>-23.094196514976801</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108">
+        <f t="shared" si="1"/>
+        <v>23.094196514976801</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>233.08</v>
       </c>
@@ -2336,8 +2764,12 @@
       <c r="D109">
         <v>27.365455278307099</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109">
+        <f t="shared" si="1"/>
+        <v>27.365455278307099</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>233.08</v>
       </c>
@@ -2350,8 +2782,12 @@
       <c r="D110">
         <v>-73.053138131853402</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110">
+        <f t="shared" si="1"/>
+        <v>73.053138131853402</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>233.08</v>
       </c>
@@ -2364,8 +2800,12 @@
       <c r="D111">
         <v>20.947092817758399</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111">
+        <f t="shared" si="1"/>
+        <v>20.947092817758399</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>246.94</v>
       </c>
@@ -2378,8 +2818,12 @@
       <c r="D112">
         <v>5.31350661841876</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112">
+        <f t="shared" si="1"/>
+        <v>5.31350661841876</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>246.94</v>
       </c>
@@ -2392,8 +2836,12 @@
       <c r="D113">
         <v>1.8589201061182601</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113">
+        <f t="shared" si="1"/>
+        <v>1.8589201061182601</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>246.94</v>
       </c>
@@ -2406,8 +2854,12 @@
       <c r="D114">
         <v>-3.0641528092467301</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114">
+        <f t="shared" si="1"/>
+        <v>3.0641528092467301</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>246.94</v>
       </c>
@@ -2420,8 +2872,12 @@
       <c r="D115">
         <v>-7.7470822888961299</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115">
+        <f t="shared" si="1"/>
+        <v>7.7470822888961299</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>246.94</v>
       </c>
@@ -2434,8 +2890,12 @@
       <c r="D116">
         <v>7.26890600347636</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116">
+        <f t="shared" si="1"/>
+        <v>7.26890600347636</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>246.94</v>
       </c>
@@ -2448,8 +2908,12 @@
       <c r="D117">
         <v>10.261086760225099</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117">
+        <f t="shared" si="1"/>
+        <v>10.261086760225099</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>246.94</v>
       </c>
@@ -2462,8 +2926,12 @@
       <c r="D118">
         <v>5.7152177210366997</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118">
+        <f t="shared" si="1"/>
+        <v>5.7152177210366997</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>246.94</v>
       </c>
@@ -2476,8 +2944,12 @@
       <c r="D119">
         <v>2.1960776142266001</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119">
+        <f t="shared" si="1"/>
+        <v>2.1960776142266001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>246.94</v>
       </c>
@@ -2490,8 +2962,12 @@
       <c r="D120">
         <v>51.5813913053126</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120">
+        <f t="shared" si="1"/>
+        <v>51.5813913053126</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>246.94</v>
       </c>
@@ -2504,8 +2980,12 @@
       <c r="D121">
         <v>49.915091070198699</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121">
+        <f t="shared" si="1"/>
+        <v>49.915091070198699</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>246.94</v>
       </c>
@@ -2518,8 +2998,12 @@
       <c r="D122">
         <v>-9.4169724968957098</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122">
+        <f t="shared" si="1"/>
+        <v>9.4169724968957098</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>261.63</v>
       </c>
@@ -2532,8 +3016,12 @@
       <c r="D123">
         <v>10.350759731932699</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123">
+        <f t="shared" si="1"/>
+        <v>10.350759731932699</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>261.63</v>
       </c>
@@ -2546,8 +3034,12 @@
       <c r="D124">
         <v>-7.5200105357154996</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124">
+        <f t="shared" si="1"/>
+        <v>7.5200105357154996</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>261.63</v>
       </c>
@@ -2560,8 +3052,12 @@
       <c r="D125">
         <v>4.5729876347552398</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125">
+        <f t="shared" si="1"/>
+        <v>4.5729876347552398</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>261.63</v>
       </c>
@@ -2574,8 +3070,12 @@
       <c r="D126">
         <v>-12.755038473253601</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126">
+        <f t="shared" si="1"/>
+        <v>12.755038473253601</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>261.63</v>
       </c>
@@ -2588,8 +3088,12 @@
       <c r="D127">
         <v>10.435292479047099</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127">
+        <f t="shared" si="1"/>
+        <v>10.435292479047099</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>261.63</v>
       </c>
@@ -2602,8 +3106,12 @@
       <c r="D128">
         <v>-0.36380808552879101</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128">
+        <f t="shared" si="1"/>
+        <v>0.36380808552879101</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>261.63</v>
       </c>
@@ -2616,8 +3124,12 @@
       <c r="D129">
         <v>-8.6804648191617595</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129">
+        <f t="shared" si="1"/>
+        <v>8.6804648191617595</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>261.63</v>
       </c>
@@ -2630,8 +3142,12 @@
       <c r="D130">
         <v>9.9912196908733009</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130">
+        <f t="shared" si="1"/>
+        <v>9.9912196908733009</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>261.63</v>
       </c>
@@ -2644,8 +3160,12 @@
       <c r="D131">
         <v>10.8232632262173</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131">
+        <f t="shared" ref="E131:E133" si="2">ABS(D131)</f>
+        <v>10.8232632262173</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>261.63</v>
       </c>
@@ -2658,8 +3178,12 @@
       <c r="D132">
         <v>-8.9828499793291403</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132">
+        <f t="shared" si="2"/>
+        <v>8.9828499793291403</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>261.63</v>
       </c>
@@ -2670,6 +3194,10 @@
         <v>0.02</v>
       </c>
       <c r="D133">
+        <v>4.5648232465523897</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="2"/>
         <v>4.5648232465523897</v>
       </c>
     </row>
@@ -2683,7 +3211,7 @@
   <dimension ref="A1:G133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2706,8 +3234,8 @@
         <v>1.3151515151515162E-2</v>
       </c>
       <c r="G1">
-        <f>AVERAGE(D:D)</f>
-        <v>1.8391725772098457</v>
+        <f>AVERAGE(E:E)</f>
+        <v>13.811112644439795</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2723,6 +3251,10 @@
       <c r="D2">
         <v>41.764659995466602</v>
       </c>
+      <c r="E2">
+        <f>ABS(D2)</f>
+        <v>41.764659995466602</v>
+      </c>
       <c r="F2">
         <f>COUNTIF(C2:C133," None")/132</f>
         <v>0</v>
@@ -2741,6 +3273,10 @@
       <c r="D3">
         <v>-79.660080172150501</v>
       </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="0">ABS(D3)</f>
+        <v>79.660080172150501</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -2755,6 +3291,10 @@
       <c r="D4">
         <v>4.2897578606786599E-2</v>
       </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>4.2897578606786599E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -2769,6 +3309,10 @@
       <c r="D5">
         <v>4.2768971345053801</v>
       </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>4.2768971345053801</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -2783,6 +3327,10 @@
       <c r="D6">
         <v>12.091181997029199</v>
       </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>12.091181997029199</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -2797,6 +3345,10 @@
       <c r="D7">
         <v>1.7441026135895501</v>
       </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1.7441026135895501</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -2811,6 +3363,10 @@
       <c r="D8">
         <v>-6.7570747196070897</v>
       </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>6.7570747196070897</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -2825,6 +3381,10 @@
       <c r="D9">
         <v>10.3780994700492</v>
       </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>10.3780994700492</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -2839,6 +3399,10 @@
       <c r="D10">
         <v>13.783259438032101</v>
       </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>13.783259438032101</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -2853,6 +3417,10 @@
       <c r="D11">
         <v>-6.0592228059128201</v>
       </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>6.0592228059128201</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -2867,6 +3435,10 @@
       <c r="D12">
         <v>3.5151558953822302</v>
       </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>3.5151558953822302</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -2881,6 +3453,10 @@
       <c r="D13">
         <v>-8.07866052131088</v>
       </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>8.07866052131088</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -2895,6 +3471,10 @@
       <c r="D14">
         <v>-19.263733438921701</v>
       </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>19.263733438921701</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -2909,6 +3489,10 @@
       <c r="D15">
         <v>-37.650069848853498</v>
       </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>37.650069848853498</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -2923,8 +3507,12 @@
       <c r="D16">
         <v>4.8601090559543296</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>4.8601090559543296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>146.83000000000001</v>
       </c>
@@ -2937,8 +3525,12 @@
       <c r="D17">
         <v>0.805878040990614</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0.805878040990614</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>146.83000000000001</v>
       </c>
@@ -2951,8 +3543,12 @@
       <c r="D18">
         <v>-12.6792042984604</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>12.6792042984604</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>146.83000000000001</v>
       </c>
@@ -2965,8 +3561,12 @@
       <c r="D19">
         <v>-4.8167825717638797</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>4.8167825717638797</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>146.83000000000001</v>
       </c>
@@ -2979,8 +3579,12 @@
       <c r="D20">
         <v>2.4073586731031802</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>2.4073586731031802</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>146.83000000000001</v>
       </c>
@@ -2993,8 +3597,12 @@
       <c r="D21">
         <v>7.5315991266803799</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>7.5315991266803799</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>146.83000000000001</v>
       </c>
@@ -3007,8 +3615,12 @@
       <c r="D22">
         <v>-10.950606366718301</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>10.950606366718301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>146.83000000000001</v>
       </c>
@@ -3021,8 +3633,12 @@
       <c r="D23">
         <v>5.8031776377781297</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>5.8031776377781297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>155.56</v>
       </c>
@@ -3035,8 +3651,12 @@
       <c r="D24">
         <v>101.401072038645</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>101.401072038645</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>155.56</v>
       </c>
@@ -3049,8 +3669,12 @@
       <c r="D25">
         <v>6.3597481472636099</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>6.3597481472636099</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>155.56</v>
       </c>
@@ -3063,8 +3687,12 @@
       <c r="D26">
         <v>12.0512013547077</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>12.0512013547077</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>155.56</v>
       </c>
@@ -3077,8 +3705,12 @@
       <c r="D27">
         <v>-7.6393138421298703</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>7.6393138421298703</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>155.56</v>
       </c>
@@ -3091,8 +3723,12 @@
       <c r="D28">
         <v>10.7230408483766</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>10.7230408483766</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>155.56</v>
       </c>
@@ -3105,8 +3741,12 @@
       <c r="D29">
         <v>7.5459736534404902</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>7.5459736534404902</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>155.56</v>
       </c>
@@ -3119,8 +3759,12 @@
       <c r="D30">
         <v>-6.50786946970904</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>6.50786946970904</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>155.56</v>
       </c>
@@ -3133,8 +3777,12 @@
       <c r="D31">
         <v>9.31102627919398</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>9.31102627919398</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>155.56</v>
       </c>
@@ -3147,8 +3795,12 @@
       <c r="D32">
         <v>15.2472383409345</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>15.2472383409345</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>155.56</v>
       </c>
@@ -3161,8 +3813,12 @@
       <c r="D33">
         <v>-7.5658018570938896</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>7.5658018570938896</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>155.56</v>
       </c>
@@ -3175,8 +3831,12 @@
       <c r="D34">
         <v>4.1830946501736497</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>4.1830946501736497</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>164.81</v>
       </c>
@@ -3189,8 +3849,12 @@
       <c r="D35">
         <v>-9.7802055020006708</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>9.7802055020006708</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>164.81</v>
       </c>
@@ -3203,8 +3867,12 @@
       <c r="D36">
         <v>54.827177473887602</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>54.827177473887602</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>164.81</v>
       </c>
@@ -3217,8 +3885,12 @@
       <c r="D37">
         <v>-32.955611441005303</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>32.955611441005303</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>164.81</v>
       </c>
@@ -3231,8 +3903,12 @@
       <c r="D38">
         <v>1.2473109241754901</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>1.2473109241754901</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>164.81</v>
       </c>
@@ -3245,8 +3921,12 @@
       <c r="D39">
         <v>1.4265622976497201</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>1.4265622976497201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>164.81</v>
       </c>
@@ -3259,8 +3939,12 @@
       <c r="D40">
         <v>-13.2232839216069</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>13.2232839216069</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>164.81</v>
       </c>
@@ -3273,8 +3957,12 @@
       <c r="D41">
         <v>-4.4498137034300198</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>4.4498137034300198</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>164.81</v>
       </c>
@@ -3287,8 +3975,12 @@
       <c r="D42">
         <v>5.0464490643097601</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>5.0464490643097601</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>164.81</v>
       </c>
@@ -3301,8 +3993,12 @@
       <c r="D43">
         <v>10.755414867905801</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>10.755414867905801</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>164.81</v>
       </c>
@@ -3315,8 +4011,12 @@
       <c r="D44">
         <v>-12.4790312881193</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>12.4790312881193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>164.81</v>
       </c>
@@ -3329,8 +4029,12 @@
       <c r="D45">
         <v>6.2039929062382999</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>6.2039929062382999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>174.61</v>
       </c>
@@ -3343,8 +4047,12 @@
       <c r="D46">
         <v>12.0642134907004</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>12.0642134907004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>174.61</v>
       </c>
@@ -3357,8 +4065,12 @@
       <c r="D47">
         <v>-3.53098122064993</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>3.53098122064993</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>174.61</v>
       </c>
@@ -3371,8 +4083,12 @@
       <c r="D48">
         <v>39.919739864079602</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>39.919739864079602</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>174.61</v>
       </c>
@@ -3385,8 +4101,12 @@
       <c r="D49">
         <v>6.0900084531356597</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>6.0900084531356597</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>174.61</v>
       </c>
@@ -3399,8 +4119,12 @@
       <c r="D50">
         <v>64.948889790818001</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>64.948889790818001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>174.61</v>
       </c>
@@ -3413,8 +4137,12 @@
       <c r="D51">
         <v>23.380964042563001</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>23.380964042563001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>174.61</v>
       </c>
@@ -3427,8 +4155,12 @@
       <c r="D52">
         <v>-12.6505335997724</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>12.6505335997724</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>174.61</v>
       </c>
@@ -3441,8 +4173,12 @@
       <c r="D53">
         <v>13.2458888628057</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>13.2458888628057</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>174.61</v>
       </c>
@@ -3455,8 +4191,12 @@
       <c r="D54">
         <v>14.699100831471601</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>14.699100831471601</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>174.61</v>
       </c>
@@ -3469,8 +4209,12 @@
       <c r="D55">
         <v>-6.38954185866963</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>6.38954185866963</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>174.61</v>
       </c>
@@ -3483,8 +4227,12 @@
       <c r="D56">
         <v>5.5226091950200598</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>5.5226091950200598</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>185</v>
       </c>
@@ -3497,8 +4245,12 @@
       <c r="D57">
         <v>-9.1627295194092806</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>9.1627295194092806</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>185</v>
       </c>
@@ -3511,8 +4263,12 @@
       <c r="D58">
         <v>-1.07782749527725</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>1.07782749527725</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>185</v>
       </c>
@@ -3525,8 +4281,12 @@
       <c r="D59">
         <v>-10.627560840104101</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>10.627560840104101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>185</v>
       </c>
@@ -3539,8 +4299,12 @@
       <c r="D60">
         <v>-12.6922930856873</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>12.6922930856873</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>185</v>
       </c>
@@ -3553,8 +4317,12 @@
       <c r="D61">
         <v>10.2529362829401</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>10.2529362829401</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>185</v>
       </c>
@@ -3567,8 +4335,12 @@
       <c r="D62">
         <v>-35.973006147610803</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>35.973006147610803</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>185</v>
       </c>
@@ -3581,8 +4353,12 @@
       <c r="D63">
         <v>-3.2612192091334</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>3.2612192091334</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>185</v>
       </c>
@@ -3595,8 +4371,12 @@
       <c r="D64">
         <v>-13.924683034063399</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>13.924683034063399</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>185</v>
       </c>
@@ -3609,8 +4389,12 @@
       <c r="D65">
         <v>-4.3256699414134001</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>4.3256699414134001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>185</v>
       </c>
@@ -3623,8 +4407,12 @@
       <c r="D66">
         <v>-16.636270873196199</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>16.636270873196199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>185</v>
       </c>
@@ -3637,8 +4425,12 @@
       <c r="D67">
         <v>20.9733815646231</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <f t="shared" ref="E67:E130" si="1">ABS(D67)</f>
+        <v>20.9733815646231</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>196</v>
       </c>
@@ -3651,8 +4443,12 @@
       <c r="D68">
         <v>-6.52421307469079</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68">
+        <f t="shared" si="1"/>
+        <v>6.52421307469079</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>196</v>
       </c>
@@ -3665,8 +4461,12 @@
       <c r="D69">
         <v>-0.14108450809538201</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69">
+        <f t="shared" si="1"/>
+        <v>0.14108450809538201</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>196</v>
       </c>
@@ -3679,8 +4479,12 @@
       <c r="D70">
         <v>-11.063245842117301</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <f t="shared" si="1"/>
+        <v>11.063245842117301</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>196</v>
       </c>
@@ -3693,8 +4497,12 @@
       <c r="D71">
         <v>-4.8814835679902897</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>4.8814835679902897</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>196</v>
       </c>
@@ -3707,8 +4515,12 @@
       <c r="D72">
         <v>7.8321246665867896</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72">
+        <f t="shared" si="1"/>
+        <v>7.8321246665867896</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>196</v>
       </c>
@@ -3721,8 +4533,12 @@
       <c r="D73">
         <v>42.669706531157701</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73">
+        <f t="shared" si="1"/>
+        <v>42.669706531157701</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>196</v>
       </c>
@@ -3735,8 +4551,12 @@
       <c r="D74">
         <v>-3.2081530930120401</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74">
+        <f t="shared" si="1"/>
+        <v>3.2081530930120401</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>196</v>
       </c>
@@ -3749,8 +4569,12 @@
       <c r="D75">
         <v>-20.073899685484498</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75">
+        <f t="shared" si="1"/>
+        <v>20.073899685484498</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>196</v>
       </c>
@@ -3763,8 +4587,12 @@
       <c r="D76">
         <v>-12.769010815374999</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76">
+        <f t="shared" si="1"/>
+        <v>12.769010815374999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>196</v>
       </c>
@@ -3777,8 +4605,12 @@
       <c r="D77">
         <v>-23.8554663396521</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77">
+        <f t="shared" si="1"/>
+        <v>23.8554663396521</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>196</v>
       </c>
@@ -3791,8 +4623,12 @@
       <c r="D78">
         <v>14.383610477344099</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78">
+        <f t="shared" si="1"/>
+        <v>14.383610477344099</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>207.65</v>
       </c>
@@ -3805,8 +4641,12 @@
       <c r="D79">
         <v>15.5987597549227</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79">
+        <f t="shared" si="1"/>
+        <v>15.5987597549227</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>207.65</v>
       </c>
@@ -3819,8 +4659,12 @@
       <c r="D80">
         <v>-7.0823683931449999</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80">
+        <f t="shared" si="1"/>
+        <v>7.0823683931449999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>207.65</v>
       </c>
@@ -3833,8 +4677,12 @@
       <c r="D81">
         <v>7.0263588121664204</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81">
+        <f t="shared" si="1"/>
+        <v>7.0263588121664204</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>207.65</v>
       </c>
@@ -3847,8 +4695,12 @@
       <c r="D82">
         <v>-2.1459862291268799</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82">
+        <f t="shared" si="1"/>
+        <v>2.1459862291268799</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>207.65</v>
       </c>
@@ -3861,8 +4713,12 @@
       <c r="D83">
         <v>15.8356379660241</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83">
+        <f t="shared" si="1"/>
+        <v>15.8356379660241</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>207.65</v>
       </c>
@@ -3875,8 +4731,12 @@
       <c r="D84">
         <v>1.34631850403568</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84">
+        <f t="shared" si="1"/>
+        <v>1.34631850403568</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>207.65</v>
       </c>
@@ -3889,8 +4749,12 @@
       <c r="D85">
         <v>0.87465301688556996</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85">
+        <f t="shared" si="1"/>
+        <v>0.87465301688556996</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>207.65</v>
       </c>
@@ -3903,8 +4767,12 @@
       <c r="D86">
         <v>43.584115625832901</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <f t="shared" si="1"/>
+        <v>43.584115625832901</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>207.65</v>
       </c>
@@ -3917,8 +4785,12 @@
       <c r="D87">
         <v>20.4344173430799</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87">
+        <f t="shared" si="1"/>
+        <v>20.4344173430799</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>207.65</v>
       </c>
@@ -3931,8 +4803,12 @@
       <c r="D88">
         <v>-7.0878964522940597</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88">
+        <f t="shared" si="1"/>
+        <v>7.0878964522940597</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>207.65</v>
       </c>
@@ -3945,8 +4821,12 @@
       <c r="D89">
         <v>1.7475520836359799</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89">
+        <f t="shared" si="1"/>
+        <v>1.7475520836359799</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>220</v>
       </c>
@@ -3959,8 +4839,12 @@
       <c r="D90">
         <v>1.32318249392619</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90">
+        <f t="shared" si="1"/>
+        <v>1.32318249392619</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>220</v>
       </c>
@@ -3973,8 +4857,12 @@
       <c r="D91">
         <v>-6.4713016402457999</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91">
+        <f t="shared" si="1"/>
+        <v>6.4713016402457999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>220</v>
       </c>
@@ -3987,8 +4875,12 @@
       <c r="D92">
         <v>-6.4604450215463096</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92">
+        <f t="shared" si="1"/>
+        <v>6.4604450215463096</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>220</v>
       </c>
@@ -4001,8 +4893,12 @@
       <c r="D93">
         <v>-3.3850291882428198</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93">
+        <f t="shared" si="1"/>
+        <v>3.3850291882428198</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>220</v>
       </c>
@@ -4015,8 +4911,12 @@
       <c r="D94">
         <v>-1.14849763764115</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94">
+        <f t="shared" si="1"/>
+        <v>1.14849763764115</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>220</v>
       </c>
@@ -4029,8 +4929,12 @@
       <c r="D95">
         <v>13.789800686704201</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95">
+        <f t="shared" si="1"/>
+        <v>13.789800686704201</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>220</v>
       </c>
@@ -4043,8 +4947,12 @@
       <c r="D96">
         <v>26.076470710675299</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96">
+        <f t="shared" si="1"/>
+        <v>26.076470710675299</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>220</v>
       </c>
@@ -4057,8 +4965,12 @@
       <c r="D97">
         <v>-34.141989574591797</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97">
+        <f t="shared" si="1"/>
+        <v>34.141989574591797</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>220</v>
       </c>
@@ -4071,8 +4983,12 @@
       <c r="D98">
         <v>-8.7266829516429603</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98">
+        <f t="shared" si="1"/>
+        <v>8.7266829516429603</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>220</v>
       </c>
@@ -4085,8 +5001,12 @@
       <c r="D99">
         <v>-57.9122876374554</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99">
+        <f t="shared" si="1"/>
+        <v>57.9122876374554</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>220</v>
       </c>
@@ -4099,8 +5019,12 @@
       <c r="D100">
         <v>9.9426584144181493</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100">
+        <f t="shared" si="1"/>
+        <v>9.9426584144181493</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>233.08</v>
       </c>
@@ -4113,8 +5037,12 @@
       <c r="D101">
         <v>3.0397492963433601</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101">
+        <f t="shared" si="1"/>
+        <v>3.0397492963433601</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>233.08</v>
       </c>
@@ -4127,8 +5055,12 @@
       <c r="D102">
         <v>-10.089747959198901</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102">
+        <f t="shared" si="1"/>
+        <v>10.089747959198901</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>233.08</v>
       </c>
@@ -4141,8 +5073,12 @@
       <c r="D103">
         <v>-3.4659602257023598</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103">
+        <f t="shared" si="1"/>
+        <v>3.4659602257023598</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>233.08</v>
       </c>
@@ -4155,8 +5091,12 @@
       <c r="D104">
         <v>-7.1725797771175799</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104">
+        <f t="shared" si="1"/>
+        <v>7.1725797771175799</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>233.08</v>
       </c>
@@ -4169,8 +5109,12 @@
       <c r="D105">
         <v>1.7759939606263999</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105">
+        <f t="shared" si="1"/>
+        <v>1.7759939606263999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>233.08</v>
       </c>
@@ -4183,8 +5127,12 @@
       <c r="D106">
         <v>8.5170478097327393</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106">
+        <f t="shared" si="1"/>
+        <v>8.5170478097327393</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>233.08</v>
       </c>
@@ -4197,8 +5145,12 @@
       <c r="D107">
         <v>8.2759264137452195</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107">
+        <f t="shared" si="1"/>
+        <v>8.2759264137452195</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>233.08</v>
       </c>
@@ -4211,8 +5163,12 @@
       <c r="D108">
         <v>-10.630889321337801</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108">
+        <f t="shared" si="1"/>
+        <v>10.630889321337801</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>233.08</v>
       </c>
@@ -4225,8 +5181,12 @@
       <c r="D109">
         <v>27.329255532939701</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109">
+        <f t="shared" si="1"/>
+        <v>27.329255532939701</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>233.08</v>
       </c>
@@ -4239,8 +5199,12 @@
       <c r="D110">
         <v>-73.562722624243904</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110">
+        <f t="shared" si="1"/>
+        <v>73.562722624243904</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>233.08</v>
       </c>
@@ -4253,8 +5217,12 @@
       <c r="D111">
         <v>20.343526824776301</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111">
+        <f t="shared" si="1"/>
+        <v>20.343526824776301</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>246.94</v>
       </c>
@@ -4267,8 +5235,12 @@
       <c r="D112">
         <v>5.6523724210659001</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112">
+        <f t="shared" si="1"/>
+        <v>5.6523724210659001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>246.94</v>
       </c>
@@ -4281,8 +5253,12 @@
       <c r="D113">
         <v>1.99463459614334</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113">
+        <f t="shared" si="1"/>
+        <v>1.99463459614334</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>246.94</v>
       </c>
@@ -4295,8 +5271,12 @@
       <c r="D114">
         <v>-2.8182316489136401</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114">
+        <f t="shared" si="1"/>
+        <v>2.8182316489136401</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>246.94</v>
       </c>
@@ -4309,8 +5289,12 @@
       <c r="D115">
         <v>-11.5571907045423</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115">
+        <f t="shared" si="1"/>
+        <v>11.5571907045423</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>246.94</v>
       </c>
@@ -4323,8 +5307,12 @@
       <c r="D116">
         <v>7.0148885560813099</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116">
+        <f t="shared" si="1"/>
+        <v>7.0148885560813099</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>246.94</v>
       </c>
@@ -4337,8 +5325,12 @@
       <c r="D117">
         <v>10.544545874310099</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117">
+        <f t="shared" si="1"/>
+        <v>10.544545874310099</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>246.94</v>
       </c>
@@ -4351,8 +5343,12 @@
       <c r="D118">
         <v>5.9208973470382604</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118">
+        <f t="shared" si="1"/>
+        <v>5.9208973470382604</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>246.94</v>
       </c>
@@ -4365,8 +5361,12 @@
       <c r="D119">
         <v>2.2414386930458901</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119">
+        <f t="shared" si="1"/>
+        <v>2.2414386930458901</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>246.94</v>
       </c>
@@ -4379,8 +5379,12 @@
       <c r="D120">
         <v>51.256592620965897</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120">
+        <f t="shared" si="1"/>
+        <v>51.256592620965897</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>246.94</v>
       </c>
@@ -4393,8 +5397,12 @@
       <c r="D121">
         <v>50.503301104889601</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121">
+        <f t="shared" si="1"/>
+        <v>50.503301104889601</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>246.94</v>
       </c>
@@ -4407,8 +5415,12 @@
       <c r="D122">
         <v>-9.1321625010864196</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122">
+        <f t="shared" si="1"/>
+        <v>9.1321625010864196</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>261.63</v>
       </c>
@@ -4421,8 +5433,12 @@
       <c r="D123">
         <v>4.7982487179790203</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123">
+        <f t="shared" si="1"/>
+        <v>4.7982487179790203</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>261.63</v>
       </c>
@@ -4435,8 +5451,12 @@
       <c r="D124">
         <v>-7.5612653444815203</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124">
+        <f t="shared" si="1"/>
+        <v>7.5612653444815203</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>261.63</v>
       </c>
@@ -4449,8 +5469,12 @@
       <c r="D125">
         <v>4.8601353713392399</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125">
+        <f t="shared" si="1"/>
+        <v>4.8601353713392399</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>261.63</v>
       </c>
@@ -4463,8 +5487,12 @@
       <c r="D126">
         <v>-9.0133031519636102</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126">
+        <f t="shared" si="1"/>
+        <v>9.0133031519636102</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>261.63</v>
       </c>
@@ -4477,8 +5505,12 @@
       <c r="D127">
         <v>9.6698935183047094</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127">
+        <f t="shared" si="1"/>
+        <v>9.6698935183047094</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>261.63</v>
       </c>
@@ -4491,8 +5523,12 @@
       <c r="D128">
         <v>-0.29498434396989098</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128">
+        <f t="shared" si="1"/>
+        <v>0.29498434396989098</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>261.63</v>
       </c>
@@ -4505,8 +5541,12 @@
       <c r="D129">
         <v>-8.4159602685827792</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129">
+        <f t="shared" si="1"/>
+        <v>8.4159602685827792</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>261.63</v>
       </c>
@@ -4519,8 +5559,12 @@
       <c r="D130">
         <v>4.8381992627105896</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130">
+        <f t="shared" si="1"/>
+        <v>4.8381992627105896</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>261.63</v>
       </c>
@@ -4533,8 +5577,12 @@
       <c r="D131">
         <v>10.957807938824599</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131">
+        <f t="shared" ref="E131:E133" si="2">ABS(D131)</f>
+        <v>10.957807938824599</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>261.63</v>
       </c>
@@ -4547,8 +5595,12 @@
       <c r="D132">
         <v>-8.5853223199050603</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132">
+        <f t="shared" si="2"/>
+        <v>8.5853223199050603</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>261.63</v>
       </c>
@@ -4559,6 +5611,10 @@
         <v>0.02</v>
       </c>
       <c r="D133">
+        <v>4.4875897983911601</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="2"/>
         <v>4.4875897983911601</v>
       </c>
     </row>
@@ -4572,7 +5628,7 @@
   <dimension ref="A1:G133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4595,8 +5651,8 @@
         <v>1.4431818181818146E-2</v>
       </c>
       <c r="G1">
-        <f>AVERAGE(D:D)</f>
-        <v>1.8373411147005303</v>
+        <f>AVERAGE(E:E)</f>
+        <v>12.422928184029528</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -4612,6 +5668,10 @@
       <c r="D2">
         <v>41.841203476474597</v>
       </c>
+      <c r="E2">
+        <f>ABS(D2)</f>
+        <v>41.841203476474597</v>
+      </c>
       <c r="F2">
         <f>COUNTIF(C2:C133," None")/132</f>
         <v>0</v>
@@ -4630,6 +5690,10 @@
       <c r="D3">
         <v>-44.423355652487203</v>
       </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="0">ABS(D3)</f>
+        <v>44.423355652487203</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -4644,6 +5708,10 @@
       <c r="D4">
         <v>-3.0940669758944099</v>
       </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>3.0940669758944099</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -4658,6 +5726,10 @@
       <c r="D5">
         <v>6.4338639778306401</v>
       </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>6.4338639778306401</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -4672,6 +5744,10 @@
       <c r="D6">
         <v>17.989200701307201</v>
       </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>17.989200701307201</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -4686,6 +5762,10 @@
       <c r="D7">
         <v>0.76867277434027104</v>
       </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.76867277434027104</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -4700,6 +5780,10 @@
       <c r="D8">
         <v>-6.6327920475515798</v>
       </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>6.6327920475515798</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -4714,6 +5798,10 @@
       <c r="D9">
         <v>10.5895540064624</v>
       </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>10.5895540064624</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -4728,6 +5816,10 @@
       <c r="D10">
         <v>10.495475385228</v>
       </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>10.495475385228</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -4742,6 +5834,10 @@
       <c r="D11">
         <v>-5.8081096128510596</v>
       </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>5.8081096128510596</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -4756,6 +5852,10 @@
       <c r="D12">
         <v>0.75561414732022603</v>
       </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.75561414732022603</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -4770,6 +5870,10 @@
       <c r="D13">
         <v>-8.2828452579949907</v>
       </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>8.2828452579949907</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -4784,6 +5888,10 @@
       <c r="D14">
         <v>-13.1907765422454</v>
       </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>13.1907765422454</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -4798,6 +5906,10 @@
       <c r="D15">
         <v>-28.203672109637498</v>
       </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>28.203672109637498</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -4812,8 +5924,12 @@
       <c r="D16">
         <v>6.2108615998450496</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>6.2108615998450496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>146.83000000000001</v>
       </c>
@@ -4826,8 +5942,12 @@
       <c r="D17">
         <v>0.46463652608744299</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0.46463652608744299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>146.83000000000001</v>
       </c>
@@ -4840,8 +5960,12 @@
       <c r="D18">
         <v>-13.2902946447406</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>13.2902946447406</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>146.83000000000001</v>
       </c>
@@ -4854,8 +5978,12 @@
       <c r="D19">
         <v>-4.1747485317831901</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>4.1747485317831901</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>146.83000000000001</v>
       </c>
@@ -4868,8 +5996,12 @@
       <c r="D20">
         <v>2.7504312523210999</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>2.7504312523210999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>146.83000000000001</v>
       </c>
@@ -4882,8 +6014,12 @@
       <c r="D21">
         <v>-0.58174018469066502</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0.58174018469066502</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>146.83000000000001</v>
       </c>
@@ -4896,8 +6032,12 @@
       <c r="D22">
         <v>-10.589617015917501</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>10.589617015917501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>146.83000000000001</v>
       </c>
@@ -4910,8 +6050,12 @@
       <c r="D23">
         <v>0.93156778717037403</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>0.93156778717037403</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>155.56</v>
       </c>
@@ -4924,8 +6068,12 @@
       <c r="D24">
         <v>84.730270776369395</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>84.730270776369395</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>155.56</v>
       </c>
@@ -4938,8 +6086,12 @@
       <c r="D25">
         <v>6.7287650843999298</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>6.7287650843999298</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>155.56</v>
       </c>
@@ -4952,8 +6104,12 @@
       <c r="D26">
         <v>6.0553738722384702</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>6.0553738722384702</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>155.56</v>
       </c>
@@ -4966,8 +6122,12 @@
       <c r="D27">
         <v>-7.4633182988785398</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>7.4633182988785398</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>155.56</v>
       </c>
@@ -4980,8 +6140,12 @@
       <c r="D28">
         <v>8.5312073490275893</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>8.5312073490275893</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>155.56</v>
       </c>
@@ -4994,8 +6158,12 @@
       <c r="D29">
         <v>8.1573984027666793</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>8.1573984027666793</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>155.56</v>
       </c>
@@ -5008,8 +6176,12 @@
       <c r="D30">
         <v>-3.96090445803015</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>3.96090445803015</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>155.56</v>
       </c>
@@ -5022,8 +6194,12 @@
       <c r="D31">
         <v>14.3880171285673</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>14.3880171285673</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>155.56</v>
       </c>
@@ -5036,8 +6212,12 @@
       <c r="D32">
         <v>8.4986951239572104</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>8.4986951239572104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>155.56</v>
       </c>
@@ -5050,8 +6230,12 @@
       <c r="D33">
         <v>-7.6161276807461302</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>7.6161276807461302</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>155.56</v>
       </c>
@@ -5064,8 +6248,12 @@
       <c r="D34">
         <v>2.9570115898013798</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>2.9570115898013798</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>164.81</v>
       </c>
@@ -5078,8 +6266,12 @@
       <c r="D35">
         <v>-7.15385602195225</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>7.15385602195225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>164.81</v>
       </c>
@@ -5092,8 +6284,12 @@
       <c r="D36">
         <v>66.913595591676</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>66.913595591676</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>164.81</v>
       </c>
@@ -5106,8 +6302,12 @@
       <c r="D37">
         <v>-45.415070139626899</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>45.415070139626899</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>164.81</v>
       </c>
@@ -5120,8 +6320,12 @@
       <c r="D38">
         <v>1.5093123724708599</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>1.5093123724708599</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>164.81</v>
       </c>
@@ -5134,8 +6338,12 @@
       <c r="D39">
         <v>4.6280884636648398</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>4.6280884636648398</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>164.81</v>
       </c>
@@ -5148,8 +6356,12 @@
       <c r="D40">
         <v>-9.1088795434560605</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>9.1088795434560605</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>164.81</v>
       </c>
@@ -5162,8 +6374,12 @@
       <c r="D41">
         <v>-3.9616759933082002</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>3.9616759933082002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>164.81</v>
       </c>
@@ -5176,8 +6392,12 @@
       <c r="D42">
         <v>5.1204843779559797</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>5.1204843779559797</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>164.81</v>
       </c>
@@ -5190,8 +6410,12 @@
       <c r="D43">
         <v>5.3029336581062996</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>5.3029336581062996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>164.81</v>
       </c>
@@ -5204,8 +6428,12 @@
       <c r="D44">
         <v>-12.280835623251599</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>12.280835623251599</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>164.81</v>
       </c>
@@ -5218,8 +6446,12 @@
       <c r="D45">
         <v>3.6377793169753301</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>3.6377793169753301</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>174.61</v>
       </c>
@@ -5232,8 +6464,12 @@
       <c r="D46">
         <v>12.357296532541399</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>12.357296532541399</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>174.61</v>
       </c>
@@ -5246,8 +6482,12 @@
       <c r="D47">
         <v>-0.34374861309274002</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>0.34374861309274002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>174.61</v>
       </c>
@@ -5260,8 +6500,12 @@
       <c r="D48">
         <v>45.038457019574103</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>45.038457019574103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>174.61</v>
       </c>
@@ -5274,8 +6518,12 @@
       <c r="D49">
         <v>5.4325883426367296</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>5.4325883426367296</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>174.61</v>
       </c>
@@ -5288,8 +6536,12 @@
       <c r="D50">
         <v>8.1518503081575808</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>8.1518503081575808</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>174.61</v>
       </c>
@@ -5302,8 +6554,12 @@
       <c r="D51">
         <v>23.353502467936</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>23.353502467936</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>174.61</v>
       </c>
@@ -5316,8 +6572,12 @@
       <c r="D52">
         <v>-10.440168958312199</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>10.440168958312199</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>174.61</v>
       </c>
@@ -5330,8 +6590,12 @@
       <c r="D53">
         <v>17.961918354625599</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>17.961918354625599</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>174.61</v>
       </c>
@@ -5344,8 +6608,12 @@
       <c r="D54">
         <v>12.8507714666063</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>12.8507714666063</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>174.61</v>
       </c>
@@ -5358,8 +6626,12 @@
       <c r="D55">
         <v>-6.5439526487088902</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>6.5439526487088902</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>174.61</v>
       </c>
@@ -5372,8 +6644,12 @@
       <c r="D56">
         <v>8.7911078121019592</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>8.7911078121019592</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>185</v>
       </c>
@@ -5386,8 +6662,12 @@
       <c r="D57">
         <v>-9.0921323529437093</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>9.0921323529437093</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>185</v>
       </c>
@@ -5400,8 +6680,12 @@
       <c r="D58">
         <v>-5.23952064479192</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>5.23952064479192</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>185</v>
       </c>
@@ -5414,8 +6698,12 @@
       <c r="D59">
         <v>-10.802477056447501</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>10.802477056447501</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>185</v>
       </c>
@@ -5428,8 +6716,12 @@
       <c r="D60">
         <v>-15.981979251094099</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>15.981979251094099</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>185</v>
       </c>
@@ -5442,8 +6734,12 @@
       <c r="D61">
         <v>9.5194144099233409</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>9.5194144099233409</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>185</v>
       </c>
@@ -5456,8 +6752,12 @@
       <c r="D62">
         <v>-36.189547051494699</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>36.189547051494699</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>185</v>
       </c>
@@ -5470,8 +6770,12 @@
       <c r="D63">
         <v>-3.3486338726887799</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>3.3486338726887799</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>185</v>
       </c>
@@ -5484,8 +6788,12 @@
       <c r="D64">
         <v>-5.8455379642598801</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>5.8455379642598801</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>185</v>
       </c>
@@ -5498,8 +6806,12 @@
       <c r="D65">
         <v>-9.35411445907725</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>9.35411445907725</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>185</v>
       </c>
@@ -5512,8 +6824,12 @@
       <c r="D66">
         <v>-11.077820654471701</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>11.077820654471701</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>185</v>
       </c>
@@ -5526,8 +6842,12 @@
       <c r="D67">
         <v>17.469212482737099</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <f t="shared" ref="E67:E130" si="1">ABS(D67)</f>
+        <v>17.469212482737099</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>196</v>
       </c>
@@ -5540,8 +6860,12 @@
       <c r="D68">
         <v>-6.4351969952094397</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68">
+        <f t="shared" si="1"/>
+        <v>6.4351969952094397</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>196</v>
       </c>
@@ -5554,8 +6878,12 @@
       <c r="D69">
         <v>-1.8581599437640901</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69">
+        <f t="shared" si="1"/>
+        <v>1.8581599437640901</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>196</v>
       </c>
@@ -5568,8 +6896,12 @@
       <c r="D70">
         <v>-10.346933409522199</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <f t="shared" si="1"/>
+        <v>10.346933409522199</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>196</v>
       </c>
@@ -5582,8 +6914,12 @@
       <c r="D71">
         <v>0.84623633468923698</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>0.84623633468923698</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>196</v>
       </c>
@@ -5596,8 +6932,12 @@
       <c r="D72">
         <v>8.8215695485091796</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72">
+        <f t="shared" si="1"/>
+        <v>8.8215695485091796</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>196</v>
       </c>
@@ -5610,8 +6950,12 @@
       <c r="D73">
         <v>42.899364929129099</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73">
+        <f t="shared" si="1"/>
+        <v>42.899364929129099</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>196</v>
       </c>
@@ -5624,8 +6968,12 @@
       <c r="D74">
         <v>-3.28650001062279</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74">
+        <f t="shared" si="1"/>
+        <v>3.28650001062279</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>196</v>
       </c>
@@ -5638,8 +6986,12 @@
       <c r="D75">
         <v>-20.254882306372</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75">
+        <f t="shared" si="1"/>
+        <v>20.254882306372</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>196</v>
       </c>
@@ -5652,8 +7004,12 @@
       <c r="D76">
         <v>-12.3965599958153</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76">
+        <f t="shared" si="1"/>
+        <v>12.3965599958153</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>196</v>
       </c>
@@ -5666,8 +7022,12 @@
       <c r="D77">
         <v>-15.5615702320352</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77">
+        <f t="shared" si="1"/>
+        <v>15.5615702320352</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>196</v>
       </c>
@@ -5680,8 +7040,12 @@
       <c r="D78">
         <v>14.356825708433799</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78">
+        <f t="shared" si="1"/>
+        <v>14.356825708433799</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>207.65</v>
       </c>
@@ -5694,8 +7058,12 @@
       <c r="D79">
         <v>5.2152085631623502</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79">
+        <f t="shared" si="1"/>
+        <v>5.2152085631623502</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>207.65</v>
       </c>
@@ -5708,8 +7076,12 @@
       <c r="D80">
         <v>-1.3556852939677</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80">
+        <f t="shared" si="1"/>
+        <v>1.3556852939677</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>207.65</v>
       </c>
@@ -5722,8 +7094,12 @@
       <c r="D81">
         <v>6.5101504667930898</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81">
+        <f t="shared" si="1"/>
+        <v>6.5101504667930898</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>207.65</v>
       </c>
@@ -5736,8 +7112,12 @@
       <c r="D82">
         <v>0.29494547969630103</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82">
+        <f t="shared" si="1"/>
+        <v>0.29494547969630103</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>207.65</v>
       </c>
@@ -5750,8 +7130,12 @@
       <c r="D83">
         <v>24.297224181937299</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83">
+        <f t="shared" si="1"/>
+        <v>24.297224181937299</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>207.65</v>
       </c>
@@ -5764,8 +7148,12 @@
       <c r="D84">
         <v>0.85077496474290304</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84">
+        <f t="shared" si="1"/>
+        <v>0.85077496474290304</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>207.65</v>
       </c>
@@ -5778,8 +7166,12 @@
       <c r="D85">
         <v>0.27696641826913998</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85">
+        <f t="shared" si="1"/>
+        <v>0.27696641826913998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>207.65</v>
       </c>
@@ -5792,8 +7184,12 @@
       <c r="D86">
         <v>39.681771070667097</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <f t="shared" si="1"/>
+        <v>39.681771070667097</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>207.65</v>
       </c>
@@ -5806,8 +7202,12 @@
       <c r="D87">
         <v>20.0828484071695</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87">
+        <f t="shared" si="1"/>
+        <v>20.0828484071695</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>207.65</v>
       </c>
@@ -5820,8 +7220,12 @@
       <c r="D88">
         <v>-4.2955518981921497</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88">
+        <f t="shared" si="1"/>
+        <v>4.2955518981921497</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>207.65</v>
       </c>
@@ -5834,8 +7238,12 @@
       <c r="D89">
         <v>0.827242373741089</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89">
+        <f t="shared" si="1"/>
+        <v>0.827242373741089</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>220</v>
       </c>
@@ -5848,8 +7256,12 @@
       <c r="D90">
         <v>1.74624150274312</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90">
+        <f t="shared" si="1"/>
+        <v>1.74624150274312</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>220</v>
       </c>
@@ -5862,8 +7274,12 @@
       <c r="D91">
         <v>-3.7798971169734599</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91">
+        <f t="shared" si="1"/>
+        <v>3.7798971169734599</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>220</v>
       </c>
@@ -5876,8 +7292,12 @@
       <c r="D92">
         <v>-6.3253305656751104</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92">
+        <f t="shared" si="1"/>
+        <v>6.3253305656751104</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>220</v>
       </c>
@@ -5890,8 +7310,12 @@
       <c r="D93">
         <v>-8.6500847377627608</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93">
+        <f t="shared" si="1"/>
+        <v>8.6500847377627608</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>220</v>
       </c>
@@ -5904,8 +7328,12 @@
       <c r="D94">
         <v>-0.86911900856959701</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94">
+        <f t="shared" si="1"/>
+        <v>0.86911900856959701</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>220</v>
       </c>
@@ -5918,8 +7346,12 @@
       <c r="D95">
         <v>15.951056674699901</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95">
+        <f t="shared" si="1"/>
+        <v>15.951056674699901</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>220</v>
       </c>
@@ -5932,8 +7364,12 @@
       <c r="D96">
         <v>45.576059813923202</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96">
+        <f t="shared" si="1"/>
+        <v>45.576059813923202</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>220</v>
       </c>
@@ -5946,8 +7382,12 @@
       <c r="D97">
         <v>-35.246309223395201</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97">
+        <f t="shared" si="1"/>
+        <v>35.246309223395201</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>220</v>
       </c>
@@ -5960,8 +7400,12 @@
       <c r="D98">
         <v>-8.7257578608016892</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98">
+        <f t="shared" si="1"/>
+        <v>8.7257578608016892</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>220</v>
       </c>
@@ -5974,8 +7418,12 @@
       <c r="D99">
         <v>-34.648897684065197</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99">
+        <f t="shared" si="1"/>
+        <v>34.648897684065197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>220</v>
       </c>
@@ -5988,8 +7436,12 @@
       <c r="D100">
         <v>10.492533115078301</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100">
+        <f t="shared" si="1"/>
+        <v>10.492533115078301</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>233.08</v>
       </c>
@@ -6002,8 +7454,12 @@
       <c r="D101">
         <v>3.59830228469299</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101">
+        <f t="shared" si="1"/>
+        <v>3.59830228469299</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>233.08</v>
       </c>
@@ -6016,8 +7472,12 @@
       <c r="D102">
         <v>-6.04614145372922</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102">
+        <f t="shared" si="1"/>
+        <v>6.04614145372922</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>233.08</v>
       </c>
@@ -6030,8 +7490,12 @@
       <c r="D103">
         <v>-3.4043307923764501</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103">
+        <f t="shared" si="1"/>
+        <v>3.4043307923764501</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>233.08</v>
       </c>
@@ -6044,8 +7508,12 @@
       <c r="D104">
         <v>-10.787137293624101</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104">
+        <f t="shared" si="1"/>
+        <v>10.787137293624101</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>233.08</v>
       </c>
@@ -6058,8 +7526,12 @@
       <c r="D105">
         <v>6.6060382017497004</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105">
+        <f t="shared" si="1"/>
+        <v>6.6060382017497004</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>233.08</v>
       </c>
@@ -6072,8 +7544,12 @@
       <c r="D106">
         <v>11.8087399740104</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106">
+        <f t="shared" si="1"/>
+        <v>11.8087399740104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>233.08</v>
       </c>
@@ -6086,8 +7562,12 @@
       <c r="D107">
         <v>3.4836607475143899</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107">
+        <f t="shared" si="1"/>
+        <v>3.4836607475143899</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>233.08</v>
       </c>
@@ -6100,8 +7580,12 @@
       <c r="D108">
         <v>-16.868044171887799</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108">
+        <f t="shared" si="1"/>
+        <v>16.868044171887799</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>233.08</v>
       </c>
@@ -6114,8 +7598,12 @@
       <c r="D109">
         <v>27.3406230632899</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109">
+        <f t="shared" si="1"/>
+        <v>27.3406230632899</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>233.08</v>
       </c>
@@ -6128,8 +7616,12 @@
       <c r="D110">
         <v>-73.117738584363593</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110">
+        <f t="shared" si="1"/>
+        <v>73.117738584363593</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>233.08</v>
       </c>
@@ -6142,8 +7634,12 @@
       <c r="D111">
         <v>21.165674015445301</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111">
+        <f t="shared" si="1"/>
+        <v>21.165674015445301</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>246.94</v>
       </c>
@@ -6156,8 +7652,12 @@
       <c r="D112">
         <v>2.6671572920861699</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112">
+        <f t="shared" si="1"/>
+        <v>2.6671572920861699</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>246.94</v>
       </c>
@@ -6170,8 +7670,12 @@
       <c r="D113">
         <v>-2.34749497577012</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113">
+        <f t="shared" si="1"/>
+        <v>2.34749497577012</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>246.94</v>
       </c>
@@ -6184,8 +7688,12 @@
       <c r="D114">
         <v>-2.3199529169530502</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114">
+        <f t="shared" si="1"/>
+        <v>2.3199529169530502</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>246.94</v>
       </c>
@@ -6198,8 +7706,12 @@
       <c r="D115">
         <v>-9.3734310863269492</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115">
+        <f t="shared" si="1"/>
+        <v>9.3734310863269492</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>246.94</v>
       </c>
@@ -6212,8 +7724,12 @@
       <c r="D116">
         <v>8.6041619487027905</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116">
+        <f t="shared" si="1"/>
+        <v>8.6041619487027905</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>246.94</v>
       </c>
@@ -6226,8 +7742,12 @@
       <c r="D117">
         <v>6.2790795473987302</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117">
+        <f t="shared" si="1"/>
+        <v>6.2790795473987302</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>246.94</v>
       </c>
@@ -6240,8 +7760,12 @@
       <c r="D118">
         <v>3.7725834283448001</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118">
+        <f t="shared" si="1"/>
+        <v>3.7725834283448001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>246.94</v>
       </c>
@@ -6254,8 +7778,12 @@
       <c r="D119">
         <v>-4.39469128618284</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119">
+        <f t="shared" si="1"/>
+        <v>4.39469128618284</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>246.94</v>
       </c>
@@ -6268,8 +7796,12 @@
       <c r="D120">
         <v>38.798343476238898</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120">
+        <f t="shared" si="1"/>
+        <v>38.798343476238898</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>246.94</v>
       </c>
@@ -6282,8 +7814,12 @@
       <c r="D121">
         <v>40.5240923435057</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121">
+        <f t="shared" si="1"/>
+        <v>40.5240923435057</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>246.94</v>
       </c>
@@ -6296,8 +7832,12 @@
       <c r="D122">
         <v>-10.97144000015</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122">
+        <f t="shared" si="1"/>
+        <v>10.97144000015</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>261.63</v>
       </c>
@@ -6310,8 +7850,12 @@
       <c r="D123">
         <v>9.4322785129544506</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123">
+        <f t="shared" si="1"/>
+        <v>9.4322785129544506</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>261.63</v>
       </c>
@@ -6324,8 +7868,12 @@
       <c r="D124">
         <v>-5.1784066946573599</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124">
+        <f t="shared" si="1"/>
+        <v>5.1784066946573599</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>261.63</v>
       </c>
@@ -6338,8 +7886,12 @@
       <c r="D125">
         <v>1.8241748598024501</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125">
+        <f t="shared" si="1"/>
+        <v>1.8241748598024501</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>261.63</v>
       </c>
@@ -6352,8 +7904,12 @@
       <c r="D126">
         <v>-1.8461997777070001</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126">
+        <f t="shared" si="1"/>
+        <v>1.8461997777070001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>261.63</v>
       </c>
@@ -6366,8 +7922,12 @@
       <c r="D127">
         <v>8.8697104404305893</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127">
+        <f t="shared" si="1"/>
+        <v>8.8697104404305893</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>261.63</v>
       </c>
@@ -6380,8 +7940,12 @@
       <c r="D128">
         <v>-0.69874995769811299</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128">
+        <f t="shared" si="1"/>
+        <v>0.69874995769811299</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>261.63</v>
       </c>
@@ -6394,8 +7958,12 @@
       <c r="D129">
         <v>-9.1360397651748393</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129">
+        <f t="shared" si="1"/>
+        <v>9.1360397651748393</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>261.63</v>
       </c>
@@ -6408,8 +7976,12 @@
       <c r="D130">
         <v>4.8222593192948704</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130">
+        <f t="shared" si="1"/>
+        <v>4.8222593192948704</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>261.63</v>
       </c>
@@ -6422,8 +7994,12 @@
       <c r="D131">
         <v>10.9386139475387</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131">
+        <f t="shared" ref="E131:E133" si="2">ABS(D131)</f>
+        <v>10.9386139475387</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>261.63</v>
       </c>
@@ -6436,8 +8012,12 @@
       <c r="D132">
         <v>-8.6301916739411997</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132">
+        <f t="shared" si="2"/>
+        <v>8.6301916739411997</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>261.63</v>
       </c>
@@ -6448,6 +8028,10 @@
         <v>0.02</v>
       </c>
       <c r="D133">
+        <v>4.5991268205936997</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="2"/>
         <v>4.5991268205936997</v>
       </c>
     </row>
@@ -6461,7 +8045,7 @@
   <dimension ref="A1:G133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6484,8 +8068,8 @@
         <v>1.6590909090909101E-2</v>
       </c>
       <c r="G1">
-        <f>AVERAGE(D:D)</f>
-        <v>0.66261786558625535</v>
+        <f>AVERAGE(E:E)</f>
+        <v>10.004772563702376</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -6501,6 +8085,10 @@
       <c r="D2">
         <v>41.9677183905441</v>
       </c>
+      <c r="E2">
+        <f>ABS(D2)</f>
+        <v>41.9677183905441</v>
+      </c>
       <c r="F2">
         <f>COUNTIF(C2:C133," None")/132</f>
         <v>0</v>
@@ -6519,6 +8107,10 @@
       <c r="D3">
         <v>-44.371896056585399</v>
       </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="0">ABS(D3)</f>
+        <v>44.371896056585399</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -6533,6 +8125,10 @@
       <c r="D4">
         <v>-0.68927682760281495</v>
       </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.68927682760281495</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -6547,6 +8143,10 @@
       <c r="D5">
         <v>6.3167339447093802</v>
       </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>6.3167339447093802</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -6561,6 +8161,10 @@
       <c r="D6">
         <v>7.2896171059842096</v>
       </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>7.2896171059842096</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -6575,6 +8179,10 @@
       <c r="D7">
         <v>0.79561393530966795</v>
       </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.79561393530966795</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -6589,6 +8197,10 @@
       <c r="D8">
         <v>-6.6808434763821696</v>
       </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>6.6808434763821696</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -6603,6 +8215,10 @@
       <c r="D9">
         <v>9.91592058546704</v>
       </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>9.91592058546704</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -6617,6 +8233,10 @@
       <c r="D10">
         <v>10.4977002449419</v>
       </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>10.4977002449419</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -6631,6 +8251,10 @@
       <c r="D11">
         <v>-5.7430816870018102</v>
       </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>5.7430816870018102</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -6645,6 +8269,10 @@
       <c r="D12">
         <v>0.78091770656511394</v>
       </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.78091770656511394</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -6659,6 +8287,10 @@
       <c r="D13">
         <v>-7.8990424902556997</v>
       </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>7.8990424902556997</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -6673,6 +8305,10 @@
       <c r="D14">
         <v>-12.772517149341599</v>
       </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>12.772517149341599</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -6687,6 +8323,10 @@
       <c r="D15">
         <v>-17.278871959157598</v>
       </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>17.278871959157598</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -6701,8 +8341,12 @@
       <c r="D16">
         <v>10.0480616776989</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>10.0480616776989</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>146.83000000000001</v>
       </c>
@@ -6715,8 +8359,12 @@
       <c r="D17">
         <v>0.34318755438389997</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0.34318755438389997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>146.83000000000001</v>
       </c>
@@ -6729,8 +8377,12 @@
       <c r="D18">
         <v>-13.339605243001399</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>13.339605243001399</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>146.83000000000001</v>
       </c>
@@ -6743,8 +8395,12 @@
       <c r="D19">
         <v>-3.7677870177069899</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>3.7677870177069899</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>146.83000000000001</v>
       </c>
@@ -6757,8 +8413,12 @@
       <c r="D20">
         <v>2.76594318849591</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>2.76594318849591</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>146.83000000000001</v>
       </c>
@@ -6771,8 +8431,12 @@
       <c r="D21">
         <v>4.4960841940396303</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>4.4960841940396303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>146.83000000000001</v>
       </c>
@@ -6785,8 +8449,12 @@
       <c r="D22">
         <v>-10.704650476504799</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>10.704650476504799</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>146.83000000000001</v>
       </c>
@@ -6799,8 +8467,12 @@
       <c r="D23">
         <v>4.7312459384382199</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>4.7312459384382199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>155.56</v>
       </c>
@@ -6813,8 +8485,12 @@
       <c r="D24">
         <v>11.8002176846979</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>11.8002176846979</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>155.56</v>
       </c>
@@ -6827,8 +8503,12 @@
       <c r="D25">
         <v>5.9990224068940501</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>5.9990224068940501</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>155.56</v>
       </c>
@@ -6841,8 +8521,12 @@
       <c r="D26">
         <v>5.75356714393806</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>5.75356714393806</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>155.56</v>
       </c>
@@ -6855,8 +8539,12 @@
       <c r="D27">
         <v>-7.2591281290597003</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>7.2591281290597003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>155.56</v>
       </c>
@@ -6869,8 +8557,12 @@
       <c r="D28">
         <v>8.6784171930209997</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>8.6784171930209997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>155.56</v>
       </c>
@@ -6883,8 +8575,12 @@
       <c r="D29">
         <v>-0.14349030419436401</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>0.14349030419436401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>155.56</v>
       </c>
@@ -6897,8 +8593,12 @@
       <c r="D30">
         <v>-3.9154331326595702</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>3.9154331326595702</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>155.56</v>
       </c>
@@ -6911,8 +8611,12 @@
       <c r="D31">
         <v>10.890422840886</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>10.890422840886</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>155.56</v>
       </c>
@@ -6925,8 +8629,12 @@
       <c r="D32">
         <v>12.1745446443262</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>12.1745446443262</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>155.56</v>
       </c>
@@ -6939,8 +8647,12 @@
       <c r="D33">
         <v>-7.6679206387527703</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>7.6679206387527703</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>155.56</v>
       </c>
@@ -6953,8 +8665,12 @@
       <c r="D34">
         <v>2.8827950220781902</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>2.8827950220781902</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>164.81</v>
       </c>
@@ -6967,8 +8683,12 @@
       <c r="D35">
         <v>-5.89593468802423</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>5.89593468802423</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>164.81</v>
       </c>
@@ -6981,8 +8701,12 @@
       <c r="D36">
         <v>3.43031740880628</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>3.43031740880628</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>164.81</v>
       </c>
@@ -6995,8 +8719,12 @@
       <c r="D37">
         <v>-9.5737886905989598</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>9.5737886905989598</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>164.81</v>
       </c>
@@ -7009,8 +8737,12 @@
       <c r="D38">
         <v>1.5879511183574699</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>1.5879511183574699</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>164.81</v>
       </c>
@@ -7023,8 +8755,12 @@
       <c r="D39">
         <v>6.2327663008698</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>6.2327663008698</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>164.81</v>
       </c>
@@ -7037,8 +8773,12 @@
       <c r="D40">
         <v>-8.8909400488057599</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>8.8909400488057599</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>164.81</v>
       </c>
@@ -7051,8 +8791,12 @@
       <c r="D41">
         <v>-3.7124803866882901</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>3.7124803866882901</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>164.81</v>
       </c>
@@ -7065,8 +8809,12 @@
       <c r="D42">
         <v>5.0517351827169099</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>5.0517351827169099</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>164.81</v>
       </c>
@@ -7079,8 +8827,12 @@
       <c r="D43">
         <v>8.8770161471711493</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>8.8770161471711493</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>164.81</v>
       </c>
@@ -7093,8 +8845,12 @@
       <c r="D44">
         <v>-12.533804382991899</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>12.533804382991899</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>164.81</v>
       </c>
@@ -7107,8 +8863,12 @@
       <c r="D45">
         <v>3.9008942622318901</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>3.9008942622318901</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>174.61</v>
       </c>
@@ -7121,8 +8881,12 @@
       <c r="D46">
         <v>11.955387293113301</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>11.955387293113301</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>174.61</v>
       </c>
@@ -7135,8 +8899,12 @@
       <c r="D47">
         <v>-3.0054130368610399</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>3.0054130368610399</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>174.61</v>
       </c>
@@ -7149,8 +8917,12 @@
       <c r="D48">
         <v>10.543681086391601</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>10.543681086391601</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>174.61</v>
       </c>
@@ -7163,8 +8935,12 @@
       <c r="D49">
         <v>5.1615783572707601</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>5.1615783572707601</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>174.61</v>
       </c>
@@ -7177,8 +8953,12 @@
       <c r="D50">
         <v>8.3742162360633206</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>8.3742162360633206</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>174.61</v>
       </c>
@@ -7191,8 +8971,12 @@
       <c r="D51">
         <v>23.3800247326331</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>23.3800247326331</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>174.61</v>
       </c>
@@ -7205,8 +8989,12 @@
       <c r="D52">
         <v>-3.4151244258203199</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>3.4151244258203199</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>174.61</v>
       </c>
@@ -7219,8 +9007,12 @@
       <c r="D53">
         <v>15.037905042540601</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>15.037905042540601</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>174.61</v>
       </c>
@@ -7233,8 +9025,12 @@
       <c r="D54">
         <v>12.990625018464399</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>12.990625018464399</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>174.61</v>
       </c>
@@ -7247,8 +9043,12 @@
       <c r="D55">
         <v>-6.6232454455299603</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>6.6232454455299603</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>174.61</v>
       </c>
@@ -7261,8 +9061,12 @@
       <c r="D56">
         <v>3.6875423229682802</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>3.6875423229682802</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>185</v>
       </c>
@@ -7275,8 +9079,12 @@
       <c r="D57">
         <v>-9.1705679429160103</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>9.1705679429160103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>185</v>
       </c>
@@ -7289,8 +9097,12 @@
       <c r="D58">
         <v>-0.443147532907602</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>0.443147532907602</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>185</v>
       </c>
@@ -7303,8 +9115,12 @@
       <c r="D59">
         <v>-9.9683091093145393</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>9.9683091093145393</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>185</v>
       </c>
@@ -7317,8 +9133,12 @@
       <c r="D60">
         <v>-16.384338598196301</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>16.384338598196301</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>185</v>
       </c>
@@ -7331,8 +9151,12 @@
       <c r="D61">
         <v>9.95066324355858</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>9.95066324355858</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>185</v>
       </c>
@@ -7345,8 +9169,12 @@
       <c r="D62">
         <v>-36.1127431546428</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>36.1127431546428</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>185</v>
       </c>
@@ -7359,8 +9187,12 @@
       <c r="D63">
         <v>-2.8748747961117802</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>2.8748747961117802</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>185</v>
       </c>
@@ -7373,8 +9205,12 @@
       <c r="D64">
         <v>1.79070980356936</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>1.79070980356936</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>185</v>
       </c>
@@ -7387,8 +9223,12 @@
       <c r="D65">
         <v>-2.2768772181743899</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>2.2768772181743899</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>185</v>
       </c>
@@ -7401,8 +9241,12 @@
       <c r="D66">
         <v>-11.186344578302499</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>11.186344578302499</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>185</v>
       </c>
@@ -7415,8 +9259,12 @@
       <c r="D67">
         <v>14.026071886799</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <f t="shared" ref="E67:E130" si="1">ABS(D67)</f>
+        <v>14.026071886799</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>196</v>
       </c>
@@ -7429,8 +9277,12 @@
       <c r="D68">
         <v>-6.6616647141298602</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68">
+        <f t="shared" si="1"/>
+        <v>6.6616647141298602</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>196</v>
       </c>
@@ -7443,8 +9295,12 @@
       <c r="D69">
         <v>-1.4423137522757099</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69">
+        <f t="shared" si="1"/>
+        <v>1.4423137522757099</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>196</v>
       </c>
@@ -7457,8 +9313,12 @@
       <c r="D70">
         <v>-9.5211241445354702</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <f t="shared" si="1"/>
+        <v>9.5211241445354702</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>196</v>
       </c>
@@ -7471,8 +9331,12 @@
       <c r="D71">
         <v>-17.321177645233199</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>17.321177645233199</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>196</v>
       </c>
@@ -7485,8 +9349,12 @@
       <c r="D72">
         <v>9.9933627136993994</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72">
+        <f t="shared" si="1"/>
+        <v>9.9933627136993994</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>196</v>
       </c>
@@ -7499,8 +9367,12 @@
       <c r="D73">
         <v>42.816271924103901</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73">
+        <f t="shared" si="1"/>
+        <v>42.816271924103901</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>196</v>
       </c>
@@ -7513,8 +9385,12 @@
       <c r="D74">
         <v>-2.91589540146924</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74">
+        <f t="shared" si="1"/>
+        <v>2.91589540146924</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>196</v>
       </c>
@@ -7527,8 +9403,12 @@
       <c r="D75">
         <v>-20.2555379877947</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75">
+        <f t="shared" si="1"/>
+        <v>20.2555379877947</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>196</v>
       </c>
@@ -7541,8 +9421,12 @@
       <c r="D76">
         <v>-2.9875439733453599</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76">
+        <f t="shared" si="1"/>
+        <v>2.9875439733453599</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>196</v>
       </c>
@@ -7555,8 +9439,12 @@
       <c r="D77">
         <v>-11.826518310887</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77">
+        <f t="shared" si="1"/>
+        <v>11.826518310887</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>196</v>
       </c>
@@ -7569,8 +9457,12 @@
       <c r="D78">
         <v>14.498950053892001</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78">
+        <f t="shared" si="1"/>
+        <v>14.498950053892001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>207.65</v>
       </c>
@@ -7583,8 +9475,12 @@
       <c r="D79">
         <v>15.988912059932501</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79">
+        <f t="shared" si="1"/>
+        <v>15.988912059932501</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>207.65</v>
       </c>
@@ -7597,8 +9493,12 @@
       <c r="D80">
         <v>-3.06989302516403</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80">
+        <f t="shared" si="1"/>
+        <v>3.06989302516403</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>207.65</v>
       </c>
@@ -7611,8 +9511,12 @@
       <c r="D81">
         <v>1.1357291461241501</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81">
+        <f t="shared" si="1"/>
+        <v>1.1357291461241501</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>207.65</v>
       </c>
@@ -7625,8 +9529,12 @@
       <c r="D82">
         <v>-4.8231990322277802</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82">
+        <f t="shared" si="1"/>
+        <v>4.8231990322277802</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>207.65</v>
       </c>
@@ -7639,8 +9547,12 @@
       <c r="D83">
         <v>11.893601906801401</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83">
+        <f t="shared" si="1"/>
+        <v>11.893601906801401</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>207.65</v>
       </c>
@@ -7653,8 +9565,12 @@
       <c r="D84">
         <v>1.29447370925761</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84">
+        <f t="shared" si="1"/>
+        <v>1.29447370925761</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>207.65</v>
       </c>
@@ -7667,8 +9583,12 @@
       <c r="D85">
         <v>0.40236846398763898</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85">
+        <f t="shared" si="1"/>
+        <v>0.40236846398763898</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>207.65</v>
       </c>
@@ -7681,8 +9601,12 @@
       <c r="D86">
         <v>39.442244349303998</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <f t="shared" si="1"/>
+        <v>39.442244349303998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>207.65</v>
       </c>
@@ -7695,8 +9619,12 @@
       <c r="D87">
         <v>20.188215406788999</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87">
+        <f t="shared" si="1"/>
+        <v>20.188215406788999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>207.65</v>
       </c>
@@ -7709,8 +9637,12 @@
       <c r="D88">
         <v>-4.2659830314792497</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88">
+        <f t="shared" si="1"/>
+        <v>4.2659830314792497</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>207.65</v>
       </c>
@@ -7723,8 +9655,12 @@
       <c r="D89">
         <v>1.2116273459982401</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89">
+        <f t="shared" si="1"/>
+        <v>1.2116273459982401</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>220</v>
       </c>
@@ -7737,8 +9673,12 @@
       <c r="D90">
         <v>1.5899911630132999</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90">
+        <f t="shared" si="1"/>
+        <v>1.5899911630132999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>220</v>
       </c>
@@ -7751,8 +9691,12 @@
       <c r="D91">
         <v>-3.7278829659764599</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91">
+        <f t="shared" si="1"/>
+        <v>3.7278829659764599</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>220</v>
       </c>
@@ -7765,8 +9709,12 @@
       <c r="D92">
         <v>-5.7858103982732096</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92">
+        <f t="shared" si="1"/>
+        <v>5.7858103982732096</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>220</v>
       </c>
@@ -7779,8 +9727,12 @@
       <c r="D93">
         <v>-8.4602250763284292</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93">
+        <f t="shared" si="1"/>
+        <v>8.4602250763284292</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>220</v>
       </c>
@@ -7793,8 +9745,12 @@
       <c r="D94">
         <v>-0.77519836237488304</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94">
+        <f t="shared" si="1"/>
+        <v>0.77519836237488304</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>220</v>
       </c>
@@ -7807,8 +9763,12 @@
       <c r="D95">
         <v>6.4200696186313397</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95">
+        <f t="shared" si="1"/>
+        <v>6.4200696186313397</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>220</v>
       </c>
@@ -7821,8 +9781,12 @@
       <c r="D96">
         <v>26.2143646143927</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96">
+        <f t="shared" si="1"/>
+        <v>26.2143646143927</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>220</v>
       </c>
@@ -7835,8 +9799,12 @@
       <c r="D97">
         <v>-30.3025774777031</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97">
+        <f t="shared" si="1"/>
+        <v>30.3025774777031</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>220</v>
       </c>
@@ -7849,8 +9817,12 @@
       <c r="D98">
         <v>-8.6903095018048298</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98">
+        <f t="shared" si="1"/>
+        <v>8.6903095018048298</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>220</v>
       </c>
@@ -7863,8 +9835,12 @@
       <c r="D99">
         <v>-34.708273122497701</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99">
+        <f t="shared" si="1"/>
+        <v>34.708273122497701</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>220</v>
       </c>
@@ -7877,8 +9853,12 @@
       <c r="D100">
         <v>10.494188848039199</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100">
+        <f t="shared" si="1"/>
+        <v>10.494188848039199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>233.08</v>
       </c>
@@ -7891,8 +9871,12 @@
       <c r="D101">
         <v>3.4481051365211601</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101">
+        <f t="shared" si="1"/>
+        <v>3.4481051365211601</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>233.08</v>
       </c>
@@ -7905,8 +9889,12 @@
       <c r="D102">
         <v>-5.8978857617666502</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102">
+        <f t="shared" si="1"/>
+        <v>5.8978857617666502</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>233.08</v>
       </c>
@@ -7919,8 +9907,12 @@
       <c r="D103">
         <v>-2.8640680973408501</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103">
+        <f t="shared" si="1"/>
+        <v>2.8640680973408501</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>233.08</v>
       </c>
@@ -7933,8 +9925,12 @@
       <c r="D104">
         <v>-10.602677607217901</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104">
+        <f t="shared" si="1"/>
+        <v>10.602677607217901</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>233.08</v>
       </c>
@@ -7947,8 +9943,12 @@
       <c r="D105">
         <v>9.5812776014216308</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105">
+        <f t="shared" si="1"/>
+        <v>9.5812776014216308</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>233.08</v>
       </c>
@@ -7961,8 +9961,12 @@
       <c r="D106">
         <v>4.1144517486851999</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106">
+        <f t="shared" si="1"/>
+        <v>4.1144517486851999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>233.08</v>
       </c>
@@ -7975,8 +9979,12 @@
       <c r="D107">
         <v>-2.9312348750006199</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107">
+        <f t="shared" si="1"/>
+        <v>2.9312348750006199</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>233.08</v>
       </c>
@@ -7989,8 +9997,12 @@
       <c r="D108">
         <v>-7.02741501667197</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108">
+        <f t="shared" si="1"/>
+        <v>7.02741501667197</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>233.08</v>
       </c>
@@ -8003,8 +10015,12 @@
       <c r="D109">
         <v>27.314890158382301</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109">
+        <f t="shared" si="1"/>
+        <v>27.314890158382301</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>233.08</v>
       </c>
@@ -8017,8 +10033,12 @@
       <c r="D110">
         <v>-73.197146059595894</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110">
+        <f t="shared" si="1"/>
+        <v>73.197146059595894</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>233.08</v>
       </c>
@@ -8031,8 +10051,12 @@
       <c r="D111">
         <v>18.635372812618101</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111">
+        <f t="shared" si="1"/>
+        <v>18.635372812618101</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>246.94</v>
       </c>
@@ -8045,8 +10069,12 @@
       <c r="D112">
         <v>2.7658695715417001</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112">
+        <f t="shared" si="1"/>
+        <v>2.7658695715417001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>246.94</v>
       </c>
@@ -8059,8 +10087,12 @@
       <c r="D113">
         <v>-3.6118151455421601</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113">
+        <f t="shared" si="1"/>
+        <v>3.6118151455421601</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>246.94</v>
       </c>
@@ -8073,8 +10105,12 @@
       <c r="D114">
         <v>-1.9127593959398801</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114">
+        <f t="shared" si="1"/>
+        <v>1.9127593959398801</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>246.94</v>
       </c>
@@ -8087,8 +10123,12 @@
       <c r="D115">
         <v>-9.3438671236869304</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115">
+        <f t="shared" si="1"/>
+        <v>9.3438671236869304</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>246.94</v>
       </c>
@@ -8101,8 +10141,12 @@
       <c r="D116">
         <v>8.6084030405608605</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116">
+        <f t="shared" si="1"/>
+        <v>8.6084030405608605</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>246.94</v>
       </c>
@@ -8115,8 +10159,12 @@
       <c r="D117">
         <v>6.3721324473595997</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117">
+        <f t="shared" si="1"/>
+        <v>6.3721324473595997</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>246.94</v>
       </c>
@@ -8129,8 +10177,12 @@
       <c r="D118">
         <v>3.7236871606852899</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118">
+        <f t="shared" si="1"/>
+        <v>3.7236871606852899</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>246.94</v>
       </c>
@@ -8143,8 +10195,12 @@
       <c r="D119">
         <v>-6.6100439637668602</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119">
+        <f t="shared" si="1"/>
+        <v>6.6100439637668602</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>246.94</v>
       </c>
@@ -8157,8 +10213,12 @@
       <c r="D120">
         <v>38.807566959375201</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120">
+        <f t="shared" si="1"/>
+        <v>38.807566959375201</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>246.94</v>
       </c>
@@ -8171,8 +10231,12 @@
       <c r="D121">
         <v>26.449426156208599</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121">
+        <f t="shared" si="1"/>
+        <v>26.449426156208599</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>246.94</v>
       </c>
@@ -8185,8 +10249,12 @@
       <c r="D122">
         <v>-1.4106088518798401</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122">
+        <f t="shared" si="1"/>
+        <v>1.4106088518798401</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>261.63</v>
       </c>
@@ -8199,8 +10267,12 @@
       <c r="D123">
         <v>14.455284709698599</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123">
+        <f t="shared" si="1"/>
+        <v>14.455284709698599</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>261.63</v>
       </c>
@@ -8213,8 +10285,12 @@
       <c r="D124">
         <v>-2.7392061179981999</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124">
+        <f t="shared" si="1"/>
+        <v>2.7392061179981999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>261.63</v>
       </c>
@@ -8227,8 +10303,12 @@
       <c r="D125">
         <v>2.60881437364508</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125">
+        <f t="shared" si="1"/>
+        <v>2.60881437364508</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>261.63</v>
       </c>
@@ -8241,8 +10321,12 @@
       <c r="D126">
         <v>-8.88238814662793</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126">
+        <f t="shared" si="1"/>
+        <v>8.88238814662793</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>261.63</v>
       </c>
@@ -8255,8 +10339,12 @@
       <c r="D127">
         <v>9.1242117278436101</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127">
+        <f t="shared" si="1"/>
+        <v>9.1242117278436101</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>261.63</v>
       </c>
@@ -8269,8 +10357,12 @@
       <c r="D128">
         <v>-0.39186536083064999</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128">
+        <f t="shared" si="1"/>
+        <v>0.39186536083064999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>261.63</v>
       </c>
@@ -8283,8 +10375,12 @@
       <c r="D129">
         <v>-8.9565267261738395</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129">
+        <f t="shared" si="1"/>
+        <v>8.9565267261738395</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>261.63</v>
       </c>
@@ -8297,8 +10393,12 @@
       <c r="D130">
         <v>4.8653264174490003</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130">
+        <f t="shared" si="1"/>
+        <v>4.8653264174490003</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>261.63</v>
       </c>
@@ -8311,8 +10411,12 @@
       <c r="D131">
         <v>10.728546413804599</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131">
+        <f t="shared" ref="E131:E133" si="2">ABS(D131)</f>
+        <v>10.728546413804599</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>261.63</v>
       </c>
@@ -8325,8 +10429,12 @@
       <c r="D132">
         <v>-8.3600952780300499</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132">
+        <f t="shared" si="2"/>
+        <v>8.3600952780300499</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>261.63</v>
       </c>
@@ -8337,6 +10445,10 @@
         <v>0.02</v>
       </c>
       <c r="D133">
+        <v>4.7532137273371298</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="2"/>
         <v>4.7532137273371298</v>
       </c>
     </row>
